--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_14.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>359414.6907284291</v>
+        <v>375786.0103676621</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2740177.930556146</v>
+        <v>2629876.587221766</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20105680.36839638</v>
+        <v>19997574.02179436</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4848165.015971368</v>
+        <v>4902964.689084983</v>
       </c>
     </row>
     <row r="11">
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S2" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="X2" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y2" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +747,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.30129424928645</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="G3" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H3" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I3" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -856,19 +856,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>19.72731862540289</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,16 +908,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>12.92549025883184</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>24.30129424928645</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="H6" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I6" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>25.04785205983618</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>7.256111626157765</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1209,16 +1209,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C9" t="n">
-        <v>24.30129424928645</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,19 +1330,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="S10" t="n">
-        <v>25.04785205983618</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T10" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,19 +1412,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.36130568012912</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1452,19 +1452,19 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G12" t="n">
-        <v>27.59002526031614</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="H12" t="n">
-        <v>24.30129424928645</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>27.29193749722201</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J13" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1567,10 +1567,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>25.04785205983618</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>24.30129424928645</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="15">
@@ -1692,13 +1692,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F15" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G15" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1734,10 +1734,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1786,10 +1786,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>7.256111626157765</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R16" t="n">
-        <v>25.04785205983618</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1850,10 +1850,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1889,19 +1889,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="S18" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T18" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D19" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>241.0142888776591</v>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2205,19 +2205,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>179.893889941384</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>176.8004988171164</v>
       </c>
     </row>
     <row r="22">
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,13 +2324,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,22 +2397,22 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>54.41130616643936</v>
+        <v>110.1497834296626</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2454,13 +2454,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,16 +2555,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>241.0142888776591</v>
+        <v>234.288905720311</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2600,10 +2600,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>62.52515684565935</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>216.6999729388017</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2755,13 +2755,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2789,13 +2789,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>241.0142888776591</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,16 +2871,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>10.15822114686786</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2925,19 +2925,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>89.20720739599011</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,70 +3029,70 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H32" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,16 +3105,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>50.25707871510748</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3159,13 +3159,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>64.66314899205665</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3266,16 +3266,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,16 +3342,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>131.3980055647953</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>131.1096832932227</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,10 +3393,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3430,52 +3430,52 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3500,19 +3500,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>56.91690033700343</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3645,10 +3645,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>149.2443446493089</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3737,19 +3737,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="C41" t="n">
-        <v>211.7308694400838</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="F41" t="n">
-        <v>229.0204371761346</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>198.2885478252619</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>229.0204371761346</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3864,28 +3864,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>94.57901069785072</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>229.0204371761346</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>142.4798274548029</v>
       </c>
     </row>
     <row r="43">
@@ -3916,49 +3916,49 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,19 +3974,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4034,16 +4034,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W44" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="45">
@@ -4065,13 +4065,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T45" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4195,13 +4195,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>27.59002526031614</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="X46" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K2" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L2" t="n">
-        <v>56.83545203625125</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M2" t="n">
-        <v>83.04597603355158</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="N2" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O2" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P2" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q2" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R2" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S2" t="n">
-        <v>85.81333917329844</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T2" t="n">
-        <v>57.94462678914073</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U2" t="n">
-        <v>57.94462678914073</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V2" t="n">
-        <v>57.94462678914073</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W2" t="n">
-        <v>57.94462678914073</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="X2" t="n">
-        <v>30.07591440498301</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="F3" t="n">
-        <v>85.81333917329844</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="G3" t="n">
-        <v>57.94462678914073</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="H3" t="n">
-        <v>30.07591440498301</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I3" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J3" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K3" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L3" t="n">
-        <v>2.207202020825291</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M3" t="n">
-        <v>28.41772601812563</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N3" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O3" t="n">
-        <v>83.04597603355158</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P3" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y3" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="C4" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="D4" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="E4" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="F4" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="G4" t="n">
-        <v>2.207202020825291</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="H4" t="n">
-        <v>2.207202020825291</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="I4" t="n">
-        <v>2.207202020825291</v>
+        <v>13.245045875396</v>
       </c>
       <c r="J4" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K4" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L4" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M4" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N4" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O4" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P4" t="n">
-        <v>105.7399236434024</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q4" t="n">
-        <v>77.87121125924466</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R4" t="n">
-        <v>50.00249887508694</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S4" t="n">
-        <v>22.13378649092923</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T4" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U4" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V4" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W4" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X4" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.207202020825291</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>26.7539638887914</v>
+        <v>108.260178376266</v>
       </c>
       <c r="C5" t="n">
-        <v>2.207202020825291</v>
+        <v>108.260178376266</v>
       </c>
       <c r="D5" t="n">
-        <v>2.207202020825291</v>
+        <v>108.260178376266</v>
       </c>
       <c r="E5" t="n">
-        <v>2.207202020825291</v>
+        <v>108.260178376266</v>
       </c>
       <c r="F5" t="n">
-        <v>2.207202020825291</v>
+        <v>108.260178376266</v>
       </c>
       <c r="G5" t="n">
-        <v>2.207202020825291</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="H5" t="n">
-        <v>2.207202020825291</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="I5" t="n">
-        <v>2.207202020825291</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="J5" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K5" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L5" t="n">
-        <v>56.83545203625125</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M5" t="n">
-        <v>56.83545203625125</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N5" t="n">
-        <v>56.83545203625125</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O5" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P5" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q5" t="n">
-        <v>110.3601010412646</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R5" t="n">
-        <v>110.3601010412646</v>
+        <v>108.260178376266</v>
       </c>
       <c r="S5" t="n">
-        <v>110.3601010412646</v>
+        <v>108.260178376266</v>
       </c>
       <c r="T5" t="n">
-        <v>82.49138865710684</v>
+        <v>108.260178376266</v>
       </c>
       <c r="U5" t="n">
-        <v>54.62267627294912</v>
+        <v>108.260178376266</v>
       </c>
       <c r="V5" t="n">
-        <v>26.7539638887914</v>
+        <v>108.260178376266</v>
       </c>
       <c r="W5" t="n">
-        <v>26.7539638887914</v>
+        <v>108.260178376266</v>
       </c>
       <c r="X5" t="n">
-        <v>26.7539638887914</v>
+        <v>108.260178376266</v>
       </c>
       <c r="Y5" t="n">
-        <v>26.7539638887914</v>
+        <v>108.260178376266</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="C6" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="D6" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="E6" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="F6" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="G6" t="n">
-        <v>57.94462678914073</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="H6" t="n">
-        <v>30.07591440498301</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I6" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J6" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K6" t="n">
-        <v>29.52132702853827</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L6" t="n">
-        <v>56.83545203625125</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M6" t="n">
-        <v>83.04597603355158</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="N6" t="n">
-        <v>83.04597603355158</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="O6" t="n">
-        <v>83.04597603355158</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P6" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q6" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R6" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S6" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T6" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U6" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V6" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W6" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X6" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y6" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80.43906297690118</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C7" t="n">
-        <v>80.43906297690118</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D7" t="n">
-        <v>80.43906297690118</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E7" t="n">
-        <v>80.43906297690118</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F7" t="n">
-        <v>80.43906297690118</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G7" t="n">
-        <v>52.57035059274347</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H7" t="n">
-        <v>52.57035059274347</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I7" t="n">
-        <v>52.57035059274347</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J7" t="n">
-        <v>24.70163820858575</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K7" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L7" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M7" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N7" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O7" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P7" t="n">
-        <v>105.7399236434024</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.43906297690118</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="R7" t="n">
-        <v>80.43906297690118</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="S7" t="n">
-        <v>80.43906297690118</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="T7" t="n">
-        <v>80.43906297690118</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="U7" t="n">
-        <v>80.43906297690118</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="V7" t="n">
-        <v>80.43906297690118</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="W7" t="n">
-        <v>80.43906297690118</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="X7" t="n">
-        <v>80.43906297690118</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="Y7" t="n">
-        <v>80.43906297690118</v>
+        <v>83.13413836268582</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C8" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D8" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E8" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F8" t="n">
-        <v>85.81333917329844</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G8" t="n">
-        <v>57.94462678914073</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H8" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J8" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K8" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L8" t="n">
-        <v>2.207202020825291</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M8" t="n">
-        <v>28.41772601812563</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N8" t="n">
-        <v>55.73185102583861</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O8" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P8" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q8" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R8" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S8" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T8" t="n">
-        <v>110.3601010412646</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="U8" t="n">
-        <v>110.3601010412646</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="V8" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W8" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X8" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y8" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>26.7539638887914</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="C9" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="D9" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E9" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F9" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G9" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H9" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I9" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J9" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K9" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L9" t="n">
-        <v>2.207202020825291</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M9" t="n">
-        <v>2.207202020825291</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N9" t="n">
-        <v>28.41772601812563</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O9" t="n">
-        <v>55.73185102583861</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P9" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V9" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W9" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X9" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y9" t="n">
-        <v>54.62267627294912</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24.70163820858575</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C10" t="n">
-        <v>24.70163820858575</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D10" t="n">
-        <v>24.70163820858575</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E10" t="n">
-        <v>24.70163820858575</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F10" t="n">
-        <v>24.70163820858575</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G10" t="n">
-        <v>24.70163820858575</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H10" t="n">
-        <v>24.70163820858575</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I10" t="n">
-        <v>24.70163820858575</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="J10" t="n">
-        <v>24.70163820858575</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K10" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L10" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M10" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N10" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O10" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P10" t="n">
-        <v>105.7399236434024</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q10" t="n">
-        <v>77.87121125924466</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R10" t="n">
-        <v>77.87121125924466</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="S10" t="n">
-        <v>52.57035059274347</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="T10" t="n">
-        <v>24.70163820858575</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="U10" t="n">
-        <v>24.70163820858575</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="V10" t="n">
-        <v>24.70163820858575</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W10" t="n">
-        <v>24.70163820858575</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="X10" t="n">
-        <v>24.70163820858575</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="Y10" t="n">
-        <v>24.70163820858575</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14.27719126790864</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="C11" t="n">
-        <v>14.27719126790864</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="D11" t="n">
-        <v>14.27719126790864</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="E11" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F11" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G11" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H11" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I11" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J11" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K11" t="n">
-        <v>29.52132702853827</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L11" t="n">
-        <v>56.83545203625125</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M11" t="n">
-        <v>84.14957704396423</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N11" t="n">
-        <v>110.3601010412646</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O11" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P11" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q11" t="n">
-        <v>100.2684856730375</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R11" t="n">
-        <v>72.39977328887976</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S11" t="n">
-        <v>44.53106090472204</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T11" t="n">
-        <v>16.66234852056432</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U11" t="n">
-        <v>14.27719126790864</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V11" t="n">
-        <v>14.27719126790864</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W11" t="n">
-        <v>14.27719126790864</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X11" t="n">
-        <v>14.27719126790864</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.27719126790864</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="C12" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="D12" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="E12" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="F12" t="n">
-        <v>54.62267627294912</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="G12" t="n">
-        <v>26.7539638887914</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J12" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K12" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L12" t="n">
-        <v>55.73185102583861</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M12" t="n">
-        <v>55.73185102583861</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N12" t="n">
-        <v>55.73185102583861</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O12" t="n">
-        <v>55.73185102583861</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="P12" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R12" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S12" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T12" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U12" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V12" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W12" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X12" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y12" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.57035059274347</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="C13" t="n">
-        <v>52.57035059274347</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="D13" t="n">
-        <v>52.57035059274347</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="E13" t="n">
-        <v>52.57035059274347</v>
+        <v>105.6285745504463</v>
       </c>
       <c r="F13" t="n">
-        <v>52.57035059274347</v>
+        <v>105.6285745504463</v>
       </c>
       <c r="G13" t="n">
-        <v>52.57035059274347</v>
+        <v>105.6285745504463</v>
       </c>
       <c r="H13" t="n">
-        <v>52.57035059274347</v>
+        <v>105.6285745504463</v>
       </c>
       <c r="I13" t="n">
-        <v>52.57035059274347</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="J13" t="n">
-        <v>24.70163820858575</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K13" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L13" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M13" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N13" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O13" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P13" t="n">
-        <v>105.7399236434024</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.87121125924466</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R13" t="n">
-        <v>77.87121125924466</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S13" t="n">
-        <v>77.87121125924466</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T13" t="n">
-        <v>77.87121125924466</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U13" t="n">
-        <v>52.57035059274347</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V13" t="n">
-        <v>52.57035059274347</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W13" t="n">
-        <v>52.57035059274347</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X13" t="n">
-        <v>52.57035059274347</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y13" t="n">
-        <v>52.57035059274347</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J14" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K14" t="n">
-        <v>29.52132702853827</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L14" t="n">
-        <v>55.73185102583861</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M14" t="n">
-        <v>83.04597603355158</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N14" t="n">
-        <v>83.04597603355158</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O14" t="n">
-        <v>110.3601010412646</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="P14" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q14" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R14" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S14" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T14" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U14" t="n">
-        <v>54.62267627294912</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V14" t="n">
-        <v>26.7539638887914</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W14" t="n">
-        <v>2.207202020825291</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X14" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.207202020825291</v>
+        <v>38.38436553875449</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>85.81333917329844</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="C15" t="n">
-        <v>85.81333917329844</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="D15" t="n">
-        <v>85.81333917329844</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="E15" t="n">
-        <v>57.94462678914073</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="F15" t="n">
-        <v>30.07591440498301</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J15" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K15" t="n">
-        <v>2.207202020825291</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L15" t="n">
-        <v>29.52132702853827</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M15" t="n">
-        <v>29.52132702853827</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N15" t="n">
-        <v>29.52132702853827</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O15" t="n">
-        <v>56.83545203625125</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P15" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R15" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S15" t="n">
-        <v>85.81333917329844</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T15" t="n">
-        <v>85.81333917329844</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="U15" t="n">
-        <v>85.81333917329844</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="V15" t="n">
-        <v>85.81333917329844</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="W15" t="n">
-        <v>85.81333917329844</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="X15" t="n">
-        <v>85.81333917329844</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="Y15" t="n">
-        <v>85.81333917329844</v>
+        <v>123.1178524655551</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.57035059274347</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="C16" t="n">
-        <v>52.57035059274347</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="D16" t="n">
-        <v>52.57035059274347</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="E16" t="n">
-        <v>52.57035059274347</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="F16" t="n">
-        <v>52.57035059274347</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="G16" t="n">
-        <v>52.57035059274347</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="H16" t="n">
-        <v>52.57035059274347</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="I16" t="n">
-        <v>52.57035059274347</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="J16" t="n">
-        <v>24.70163820858575</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="K16" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L16" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M16" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N16" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O16" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P16" t="n">
-        <v>105.7399236434024</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.87121125924466</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="R16" t="n">
-        <v>52.57035059274347</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="S16" t="n">
-        <v>52.57035059274347</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="T16" t="n">
-        <v>52.57035059274347</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="U16" t="n">
-        <v>52.57035059274347</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="V16" t="n">
-        <v>52.57035059274347</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="W16" t="n">
-        <v>52.57035059274347</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="X16" t="n">
-        <v>52.57035059274347</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="Y16" t="n">
-        <v>52.57035059274347</v>
+        <v>50.47982994280417</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C17" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D17" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E17" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J17" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K17" t="n">
-        <v>3.166710156947247</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L17" t="n">
-        <v>42.35474834916943</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M17" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N17" t="n">
-        <v>120.7308247336138</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O17" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P17" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q17" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R17" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S17" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T17" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U17" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="V17" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W17" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X17" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y17" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C18" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D18" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E18" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F18" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G18" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H18" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I18" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J18" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K18" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L18" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M18" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N18" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O18" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P18" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3517937444931</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S18" t="n">
-        <v>78.36807964162378</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T18" t="n">
-        <v>43.15042425981653</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U18" t="n">
-        <v>43.15042425981653</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="V18" t="n">
-        <v>43.15042425981653</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W18" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X18" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y18" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>43.15042425981653</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C19" t="n">
-        <v>43.15042425981653</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="D19" t="n">
-        <v>3.166710156947247</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="E19" t="n">
-        <v>3.166710156947247</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="F19" t="n">
-        <v>3.166710156947247</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="G19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K19" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L19" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M19" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N19" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O19" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P19" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R19" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S19" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T19" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U19" t="n">
-        <v>93.21247408113457</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V19" t="n">
-        <v>93.21247408113457</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W19" t="n">
-        <v>93.21247408113457</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X19" t="n">
-        <v>93.21247408113457</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y19" t="n">
-        <v>83.13413836268582</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5780,22 +5780,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="21">
@@ -5805,13 +5805,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>178.5185981156682</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C21" t="n">
-        <v>178.5185981156682</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D21" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
         <v>19.28114311021272</v>
@@ -5832,49 +5832,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N21" t="n">
-        <v>613.2059550252818</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U21" t="n">
-        <v>360.2295980564601</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V21" t="n">
-        <v>178.5185981156682</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W21" t="n">
-        <v>178.5185981156682</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X21" t="n">
-        <v>178.5185981156682</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y21" t="n">
-        <v>178.5185981156682</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="22">
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F22" t="n">
         <v>829.5248650203655</v>
@@ -5947,13 +5947,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X23" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
-        <v>233.7108255783361</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>521.1447485139397</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="C24" t="n">
-        <v>521.1447485139397</v>
+        <v>130.5435506149225</v>
       </c>
       <c r="D24" t="n">
-        <v>372.2103388526884</v>
+        <v>130.5435506149225</v>
       </c>
       <c r="E24" t="n">
-        <v>212.9728838472329</v>
+        <v>130.5435506149225</v>
       </c>
       <c r="F24" t="n">
-        <v>212.9728838472329</v>
+        <v>130.5435506149225</v>
       </c>
       <c r="G24" t="n">
-        <v>74.24205842984844</v>
+        <v>130.5435506149225</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6081,10 +6081,10 @@
         <v>726.4525409563269</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6102,16 +6102,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>728.9050472788936</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X24" t="n">
-        <v>728.9050472788936</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y24" t="n">
-        <v>521.1447485139397</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="25">
@@ -6172,19 +6172,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
         <v>19.28114311021272</v>
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>802.5825927271064</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="C26" t="n">
-        <v>749.627473042513</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6248,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T26" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U26" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V26" t="n">
-        <v>802.5825927271064</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="W26" t="n">
-        <v>802.5825927271064</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="X26" t="n">
-        <v>802.5825927271064</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y26" t="n">
-        <v>802.5825927271064</v>
+        <v>255.9366034337592</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>82.43786719673733</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>82.43786719673733</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>82.43786719673733</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>82.43786719673733</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>82.43786719673733</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6306,49 +6306,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U27" t="n">
-        <v>533.6469426057913</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V27" t="n">
-        <v>533.6469426057913</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W27" t="n">
-        <v>290.1981659616912</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X27" t="n">
-        <v>290.1981659616912</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>82.43786719673733</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D29" t="n">
         <v>506.1786963984129</v>
@@ -6506,7 +6506,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>352.9294114938717</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>178.4763822127447</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>29.54197255149339</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>29.54197255149339</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
         <v>19.28114311021272</v>
@@ -6543,22 +6543,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>417.4543050195419</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6573,19 +6573,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>873.9488652116563</v>
       </c>
       <c r="V30" t="n">
-        <v>728.9050472788936</v>
+        <v>638.7967569799137</v>
       </c>
       <c r="W30" t="n">
-        <v>728.9050472788936</v>
+        <v>395.3479803358136</v>
       </c>
       <c r="X30" t="n">
-        <v>728.9050472788936</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="Y30" t="n">
-        <v>521.1447485139397</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="31">
@@ -6649,19 +6649,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
         <v>19.28114311021272</v>
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>70.04586908506877</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E33" t="n">
         <v>19.28114311021272</v>
@@ -6780,22 +6780,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6807,22 +6807,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V33" t="n">
-        <v>689.4702815141908</v>
+        <v>421.9673747597683</v>
       </c>
       <c r="W33" t="n">
-        <v>446.0215048700907</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="X33" t="n">
-        <v>446.0215048700907</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="Y33" t="n">
-        <v>238.2612061051368</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6990,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>152.0064012564706</v>
+        <v>152.4692992915062</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>152.4692992915062</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>152.4692992915062</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7041,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V36" t="n">
-        <v>735.8335372470253</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W36" t="n">
-        <v>735.8335372470253</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X36" t="n">
-        <v>527.9820370414925</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y36" t="n">
-        <v>320.2217382765386</v>
+        <v>152.4692992915062</v>
       </c>
     </row>
     <row r="37">
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
         <v>829.5248650203655</v>
@@ -7123,22 +7123,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7154,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
         <v>19.28114311021272</v>
@@ -7199,25 +7199,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V38" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="39">
@@ -7227,10 +7227,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
         <v>19.28114311021272</v>
@@ -7254,19 +7254,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7278,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="T39" t="n">
-        <v>790.6398109613051</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="U39" t="n">
-        <v>562.4161926976942</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="V39" t="n">
-        <v>562.4161926976942</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W39" t="n">
-        <v>318.9674160535941</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X39" t="n">
-        <v>318.9674160535941</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>463.524974990473</v>
+        <v>257.7718183255803</v>
       </c>
       <c r="C41" t="n">
-        <v>249.6554098994793</v>
+        <v>257.7718183255803</v>
       </c>
       <c r="D41" t="n">
-        <v>249.6554098994793</v>
+        <v>257.7718183255803</v>
       </c>
       <c r="E41" t="n">
-        <v>249.6554098994793</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="F41" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="G41" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="H41" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="I41" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="J41" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="K41" t="n">
-        <v>74.32074221503734</v>
+        <v>121.932285387744</v>
       </c>
       <c r="L41" t="n">
-        <v>254.3965937996959</v>
+        <v>284.1788189362417</v>
       </c>
       <c r="M41" t="n">
-        <v>471.3722210626001</v>
+        <v>501.1544461991459</v>
       </c>
       <c r="N41" t="n">
-        <v>677.2267432698394</v>
+        <v>707.0089684063852</v>
       </c>
       <c r="O41" t="n">
-        <v>826.4216934124875</v>
+        <v>856.2039185490332</v>
       </c>
       <c r="P41" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="Q41" t="n">
-        <v>905.9901333363114</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="R41" t="n">
-        <v>905.9901333363114</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="S41" t="n">
-        <v>694.8587499158615</v>
+        <v>735.4808960230977</v>
       </c>
       <c r="T41" t="n">
-        <v>694.8587499158615</v>
+        <v>735.4808960230977</v>
       </c>
       <c r="U41" t="n">
-        <v>463.524974990473</v>
+        <v>735.4808960230977</v>
       </c>
       <c r="V41" t="n">
-        <v>463.524974990473</v>
+        <v>735.4808960230977</v>
       </c>
       <c r="W41" t="n">
-        <v>463.524974990473</v>
+        <v>735.4808960230977</v>
       </c>
       <c r="X41" t="n">
-        <v>463.524974990473</v>
+        <v>735.4808960230977</v>
       </c>
       <c r="Y41" t="n">
-        <v>463.524974990473</v>
+        <v>496.626357174339</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>192.7746642552178</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="C42" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="D42" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="E42" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="F42" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="G42" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="H42" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="I42" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="J42" t="n">
-        <v>18.32163497409077</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="K42" t="n">
-        <v>143.6791950319282</v>
+        <v>144.2748395346591</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4094278363015</v>
+        <v>374.2379454030082</v>
       </c>
       <c r="M42" t="n">
-        <v>506.7080382868143</v>
+        <v>608.3392789286765</v>
       </c>
       <c r="N42" t="n">
-        <v>506.7080382868143</v>
+        <v>842.4406124543449</v>
       </c>
       <c r="O42" t="n">
-        <v>733.4382710911875</v>
+        <v>876.4694153277549</v>
       </c>
       <c r="P42" t="n">
-        <v>916.0817487045384</v>
+        <v>876.4694153277549</v>
       </c>
       <c r="Q42" t="n">
-        <v>916.0817487045384</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="R42" t="n">
-        <v>916.0817487045384</v>
+        <v>844.6944443939699</v>
       </c>
       <c r="S42" t="n">
-        <v>820.5473944642852</v>
+        <v>844.6944443939699</v>
       </c>
       <c r="T42" t="n">
-        <v>820.5473944642852</v>
+        <v>844.6944443939699</v>
       </c>
       <c r="U42" t="n">
-        <v>592.3237762006743</v>
+        <v>844.6944443939699</v>
       </c>
       <c r="V42" t="n">
-        <v>592.3237762006743</v>
+        <v>609.5423361622272</v>
       </c>
       <c r="W42" t="n">
-        <v>360.9900012752858</v>
+        <v>370.6877973134685</v>
       </c>
       <c r="X42" t="n">
-        <v>360.9900012752858</v>
+        <v>162.8362971079357</v>
       </c>
       <c r="Y42" t="n">
-        <v>360.9900012752858</v>
+        <v>18.91727947682168</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.0817487045384</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="C43" t="n">
-        <v>916.0817487045384</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="D43" t="n">
-        <v>916.0817487045384</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="E43" t="n">
-        <v>916.0817487045384</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="F43" t="n">
-        <v>916.0817487045384</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="G43" t="n">
-        <v>916.0817487045384</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="H43" t="n">
-        <v>916.0817487045384</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="I43" t="n">
-        <v>781.5494582142677</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="J43" t="n">
-        <v>781.5494582142677</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="K43" t="n">
-        <v>781.5494582142677</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="L43" t="n">
-        <v>808.8635832219807</v>
+        <v>46.23140448453466</v>
       </c>
       <c r="M43" t="n">
-        <v>848.0516214142028</v>
+        <v>85.41944267675684</v>
       </c>
       <c r="N43" t="n">
-        <v>891.7424720696391</v>
+        <v>129.1102933321932</v>
       </c>
       <c r="O43" t="n">
-        <v>916.0817487045384</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="P43" t="n">
-        <v>916.0817487045384</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="Q43" t="n">
-        <v>916.0817487045384</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="R43" t="n">
-        <v>916.0817487045384</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="S43" t="n">
-        <v>916.0817487045384</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="T43" t="n">
-        <v>916.0817487045384</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="U43" t="n">
-        <v>916.0817487045384</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="V43" t="n">
-        <v>916.0817487045384</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="W43" t="n">
-        <v>916.0817487045384</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="X43" t="n">
-        <v>916.0817487045384</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="Y43" t="n">
-        <v>916.0817487045384</v>
+        <v>18.91727947682168</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>85.81333917329844</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C44" t="n">
-        <v>85.81333917329844</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D44" t="n">
-        <v>57.94462678914073</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E44" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F44" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G44" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H44" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I44" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J44" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K44" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L44" t="n">
-        <v>29.52132702853827</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M44" t="n">
-        <v>56.83545203625125</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="N44" t="n">
-        <v>84.14957704396423</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="O44" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P44" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q44" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R44" t="n">
-        <v>110.3601010412646</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="S44" t="n">
-        <v>110.3601010412646</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="T44" t="n">
-        <v>110.3601010412646</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="U44" t="n">
-        <v>110.3601010412646</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="V44" t="n">
-        <v>110.3601010412646</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="W44" t="n">
-        <v>85.81333917329844</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="X44" t="n">
-        <v>85.81333917329844</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="Y44" t="n">
-        <v>85.81333917329844</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>54.62267627294912</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="C45" t="n">
-        <v>54.62267627294912</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="D45" t="n">
-        <v>54.62267627294912</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="E45" t="n">
-        <v>54.62267627294912</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="F45" t="n">
-        <v>30.07591440498301</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="G45" t="n">
-        <v>2.207202020825291</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="H45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J45" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K45" t="n">
-        <v>28.41772601812563</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L45" t="n">
-        <v>28.41772601812563</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M45" t="n">
-        <v>55.73185102583861</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N45" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O45" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P45" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R45" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S45" t="n">
-        <v>110.3601010412646</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T45" t="n">
-        <v>82.49138865710684</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="U45" t="n">
-        <v>82.49138865710684</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="V45" t="n">
-        <v>82.49138865710684</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="W45" t="n">
-        <v>54.62267627294912</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="X45" t="n">
-        <v>54.62267627294912</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="Y45" t="n">
-        <v>54.62267627294912</v>
+        <v>38.38436553875449</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K46" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L46" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M46" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N46" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O46" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P46" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q46" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R46" t="n">
-        <v>108.4888536788635</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="S46" t="n">
-        <v>108.4888536788635</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="T46" t="n">
-        <v>108.4888536788635</v>
+        <v>13.245045875396</v>
       </c>
       <c r="U46" t="n">
-        <v>108.4888536788635</v>
+        <v>13.245045875396</v>
       </c>
       <c r="V46" t="n">
-        <v>108.4888536788635</v>
+        <v>13.245045875396</v>
       </c>
       <c r="W46" t="n">
-        <v>80.62014129470579</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X46" t="n">
-        <v>52.75142891054807</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.88271652639035</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>247.6798763052967</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L2" t="n">
-        <v>263.3564402303034</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M2" t="n">
-        <v>256.8215099922226</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>267.3975919943167</v>
       </c>
       <c r="O2" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>176.5389081776</v>
       </c>
       <c r="M3" t="n">
-        <v>168.6093106869682</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>158.9317373436494</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q3" t="n">
-        <v>167.5717993463377</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8143,10 +8143,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>247.6798763052967</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L5" t="n">
-        <v>263.3564402303034</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N5" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>256.5734881866366</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>258.8230210155857</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>165.4314642346751</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>168.6093106869681</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q6" t="n">
-        <v>167.5717993463377</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8380,10 +8380,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M8" t="n">
-        <v>256.8215099922226</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N8" t="n">
-        <v>257.0030888569071</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>257.6882366820029</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>258.8230210155857</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N9" t="n">
-        <v>157.8169888482831</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>167.5717993463377</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8617,10 +8617,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>247.6798763052967</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>263.3564402303034</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M11" t="n">
-        <v>257.9362584875889</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N11" t="n">
-        <v>255.8883403615407</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>165.4314642346751</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L12" t="n">
-        <v>165.029656544824</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P12" t="n">
-        <v>161.5644326746464</v>
+        <v>171.9589358120561</v>
       </c>
       <c r="Q12" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8854,10 +8854,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M13" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,22 +8927,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>247.6798763052967</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>262.2416917349371</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
-        <v>257.9362584875889</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O14" t="n">
-        <v>257.6882366820029</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>269.2175241529953</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>175.8259673720848</v>
       </c>
       <c r="L15" t="n">
-        <v>166.1444050401903</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>160.4496841792801</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>167.5717993463377</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9091,10 +9091,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M16" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,19 +9164,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L17" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M17" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
-        <v>268.9969405584315</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O17" t="n">
-        <v>268.0827398194126</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P17" t="n">
         <v>231.2329957552695</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>177.4253159361996</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L18" t="n">
-        <v>176.5389081776</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P18" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q18" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9331,7 +9331,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N19" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O19" t="n">
         <v>163.0416663658825</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9729,13 +9729,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>312.5053919605859</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>368.5691090902119</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10428,13 +10428,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,22 +10665,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>301.248502863135</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10902,22 +10902,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11060,10 +11060,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>276.6546058338155</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>399.6518023927121</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11142,22 +11142,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>367.5748169560088</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>279.8093980134454</v>
+        <v>378.6000273822893</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>367.8077055436044</v>
       </c>
       <c r="O42" t="n">
-        <v>371.616681620579</v>
+        <v>176.968772599404</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,19 +11297,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L44" t="n">
-        <v>263.3564402303034</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M44" t="n">
-        <v>257.9362584875889</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N44" t="n">
-        <v>257.0030888569071</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>256.5734881866366</v>
+        <v>268.0827398194126</v>
       </c>
       <c r="P44" t="n">
         <v>231.2329957552695</v>
@@ -11376,22 +11376,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>164.3167157393088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M45" t="n">
-        <v>169.7240591823345</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O45" t="n">
-        <v>170.1862697047606</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P45" t="n">
-        <v>161.5644326746464</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -11461,10 +11461,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M46" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22592,13 +22592,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S2" t="n">
-        <v>184.7187753369589</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>195.5058243038152</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22607,13 +22607,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>314.3754898894238</v>
       </c>
       <c r="X2" t="n">
-        <v>342.1410754181529</v>
+        <v>330.1472237166284</v>
       </c>
       <c r="Y2" t="n">
-        <v>358.6479133957374</v>
+        <v>346.654061694213</v>
       </c>
     </row>
     <row r="3">
@@ -22635,16 +22635,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>120.7679181440974</v>
+        <v>110.2037335653947</v>
       </c>
       <c r="G3" t="n">
-        <v>109.7534919028945</v>
+        <v>97.75964020137005</v>
       </c>
       <c r="H3" t="n">
-        <v>84.64541897618032</v>
+        <v>72.65156727465587</v>
       </c>
       <c r="I3" t="n">
-        <v>61.80660759109894</v>
+        <v>49.81275588957449</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -22717,16 +22717,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>128.4071023966182</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>122.643295545599</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>83.3816277554085</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -22744,19 +22744,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>58.57201799137825</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>149.7033661168533</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>196.4265727766561</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>208.2182708028786</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22784,7 +22784,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>340.9715975217211</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22796,16 +22796,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>402.3772472563032</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>299.8909251539266</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>170.8920126085653</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,22 +22826,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>195.5058243038152</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>223.7556276475204</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>300.1622332098187</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22875,13 +22875,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>113.0422229139242</v>
+        <v>102.4780383352215</v>
       </c>
       <c r="H6" t="n">
-        <v>84.64541897618032</v>
+        <v>72.65156727465587</v>
       </c>
       <c r="I6" t="n">
-        <v>61.80660759109894</v>
+        <v>49.81275588957449</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22908,7 +22908,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22917,7 +22917,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>198.3513568206587</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22939,10 +22939,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>140.2481032200967</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>127.6629441367872</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -22954,7 +22954,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>140.4009540981426</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -22963,10 +22963,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>65.76915485635664</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22984,7 +22984,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.1141911918582</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -23002,13 +23002,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>279.2668867104333</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>179.0007763902542</v>
       </c>
     </row>
     <row r="8">
@@ -23030,16 +23030,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>382.574751492425</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>387.7127122548189</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>311.884776855451</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>182.8858643100898</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23066,19 +23066,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>292.8867796421457</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23097,16 +23097,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>138.9431583895512</v>
+        <v>126.9493066880268</v>
       </c>
       <c r="C9" t="n">
-        <v>148.4072047390293</v>
+        <v>133.1246220264752</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>112.5795867366496</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>118.0612034935604</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23160,13 +23160,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>224.1049579006035</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>178.0926705169882</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23200,10 +23200,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,19 +23218,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>58.57201799137825</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>167.3158390159052</v>
       </c>
       <c r="S10" t="n">
-        <v>198.9687459771361</v>
+        <v>184.4327210751317</v>
       </c>
       <c r="T10" t="n">
-        <v>200.3555641679654</v>
+        <v>188.3617124664409</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>343.14996470164</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>325.689014809167</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>315.0991646588424</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>347.0648912442726</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23279,7 +23279,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,19 +23300,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>122.2790926808335</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>181.4300443259292</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>195.5058243038152</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>248.9843472277074</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23340,19 +23340,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>119.8550403043226</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>117.4791871330677</v>
+        <v>105.4853354315433</v>
       </c>
       <c r="G12" t="n">
-        <v>109.7534919028945</v>
+        <v>102.4780383352215</v>
       </c>
       <c r="H12" t="n">
-        <v>87.93414998721002</v>
+        <v>72.65156727465587</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23394,7 +23394,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>193.2167101875847</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>119.1420251493472</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,10 +23434,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J13" t="n">
-        <v>65.76915485635664</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23455,10 +23455,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>58.57201799137825</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23470,7 +23470,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>261.2711772966547</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>347.8683628354914</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23546,22 +23546,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>195.5058243038152</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>223.7556276475204</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>300.1622332098187</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>324.9396744681266</v>
+        <v>309.6570917555724</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>330.1472237166284</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>346.654061694213</v>
       </c>
     </row>
     <row r="15">
@@ -23580,13 +23580,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>130.0550551950848</v>
+        <v>118.0612034935604</v>
       </c>
       <c r="F15" t="n">
-        <v>117.4791871330677</v>
+        <v>105.4853354315433</v>
       </c>
       <c r="G15" t="n">
-        <v>109.7534919028945</v>
+        <v>97.75964020137005</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23622,10 +23622,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>147.3818768545514</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>165.2992498668324</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23674,10 +23674,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>65.76915485635664</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>15.01338019972509</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,10 +23695,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>58.57201799137825</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R16" t="n">
-        <v>152.2455393173333</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>347.8683628354914</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23738,10 +23738,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>342.3464931104212</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>367.2921687798708</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
@@ -23777,19 +23777,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>288.8806410385104</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23798,7 +23798,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23829,7 +23829,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23856,13 +23856,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>60.57395719080255</v>
+        <v>61.28621672101858</v>
       </c>
       <c r="S18" t="n">
-        <v>132.0992941419972</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T18" t="n">
-        <v>165.2992498668324</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23871,7 +23871,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>140.2481032200967</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>123.1146487193992</v>
       </c>
       <c r="D19" t="n">
-        <v>109.0315960563718</v>
+        <v>104.4833006389838</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>102.3017902673406</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.9909793584588</v>
+        <v>167.2005289107765</v>
       </c>
       <c r="H19" t="n">
         <v>162.2271725074396</v>
@@ -23944,7 +23944,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>246.7351523946503</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>208.6071009908305</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,10 +23966,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>113.6687527430239</v>
@@ -23990,7 +23990,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>22.7597532753017</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24029,13 +24029,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24093,19 +24093,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>52.90669720804129</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24114,7 +24114,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>28.88219696018791</v>
       </c>
     </row>
     <row r="22">
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G22" t="n">
         <v>167.9909793584588</v>
@@ -24187,7 +24187,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,13 +24212,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24263,16 +24263,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24285,22 +24285,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>57.8241380700571</v>
+        <v>2.085660806833843</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24342,13 +24342,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24427,7 +24427,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24443,16 +24443,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>312.84732328326</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>172.5871400214005</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24488,10 +24488,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -24500,7 +24500,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24509,7 +24509,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24534,7 +24534,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>74.81836031755128</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24567,28 +24567,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>16.10061421062358</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24643,13 +24643,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24677,13 +24677,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275656</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>140.9160811946027</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,16 +24759,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>134.910991246516</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24813,19 +24813,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>136.7341746849847</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24889,7 +24889,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24917,7 +24917,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24926,13 +24926,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1801156868699</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24968,10 +24968,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24980,7 +24980,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,16 +24993,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>122.4514202732083</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25047,13 +25047,13 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>168.1374381573686</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
@@ -25062,7 +25062,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25154,16 +25154,16 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25175,7 +25175,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25208,19 +25208,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>61.00025583355162</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,16 +25230,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>41.31049342352048</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>26.53539716217824</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25254,7 +25254,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,10 +25281,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25296,7 +25296,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25363,7 +25363,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25388,19 +25388,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C38" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25439,16 +25439,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>6.725383157348119</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25473,7 +25473,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25518,7 +25518,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>114.7662707668344</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -25533,10 +25533,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>56.4383511279955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25561,10 +25561,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H40" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25625,19 +25625,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>146.2678482032095</v>
       </c>
       <c r="C41" t="n">
-        <v>153.5420223309238</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>145.4643766119907</v>
       </c>
       <c r="F41" t="n">
-        <v>177.8556085655768</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25676,13 +25676,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>10.73152176098347</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>22.32521573170189</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>149.7719451957825</v>
       </c>
     </row>
     <row r="42">
@@ -25704,10 +25704,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25752,28 +25752,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>77.1041604059871</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>22.674545984785</v>
+        <v>15.22898970064855</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>63.20286832250147</v>
       </c>
     </row>
     <row r="43">
@@ -25804,7 +25804,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
         <v>93.35918011667277</v>
@@ -25846,7 +25846,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,19 +25862,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>343.14996470164</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>327.0930163603668</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>354.3403448119457</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>379.2860204813953</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25910,7 +25910,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>115.0036391131605</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25922,16 +25922,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>288.1683815082943</v>
       </c>
       <c r="W44" t="n">
-        <v>324.9396744681266</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>346.654061694213</v>
       </c>
     </row>
     <row r="45">
@@ -25953,13 +25953,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>120.7679181440974</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>109.7534919028945</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>77.36996540850728</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25989,13 +25989,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>132.0992941419972</v>
       </c>
       <c r="T45" t="n">
-        <v>172.5747034345055</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -26004,7 +26004,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>224.1049579006035</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>157.3832208214279</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26068,13 +26068,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>184.4327210751317</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>188.3617124664409</v>
       </c>
       <c r="U46" t="n">
         <v>286.3190293564909</v>
@@ -26083,13 +26083,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>258.9329730762748</v>
+        <v>276.5454459753267</v>
       </c>
       <c r="X46" t="n">
-        <v>198.119630128721</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>190.9946280917787</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>345935.8052461844</v>
+        <v>355312.72361079</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>345935.8052461844</v>
+        <v>355312.7236107902</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>345935.8052461843</v>
+        <v>355312.72361079</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>345935.8052461843</v>
+        <v>355312.7236107902</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>345935.8052461844</v>
+        <v>355312.7236107902</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>355312.7236107902</v>
+        <v>358707.9309472631</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498720.1973742846</v>
+        <v>498720.1973742848</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498720.1973742848</v>
+        <v>498720.1973742846</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498720.1973742848</v>
+        <v>498720.1973742846</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498720.1973742848</v>
+        <v>498720.1973742846</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498720.1973742848</v>
+        <v>498720.1973742846</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498720.1973742848</v>
+        <v>498720.1973742846</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490190.7971941855</v>
+        <v>495485.6875005898</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>345935.8052461843</v>
+        <v>355312.7236107901</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80710.96958749175</v>
+        <v>82895.95959605239</v>
       </c>
       <c r="C2" t="n">
-        <v>80710.96958749175</v>
+        <v>82895.95959605242</v>
       </c>
       <c r="D2" t="n">
-        <v>80710.96958749177</v>
+        <v>82895.95959605239</v>
       </c>
       <c r="E2" t="n">
-        <v>80710.96958749177</v>
+        <v>82895.95959605239</v>
       </c>
       <c r="F2" t="n">
-        <v>80710.96958749177</v>
+        <v>82895.95959605239</v>
       </c>
       <c r="G2" t="n">
-        <v>82895.9595960524</v>
+        <v>83687.10374583911</v>
       </c>
       <c r="H2" t="n">
         <v>116312.4707719327</v>
@@ -26347,13 +26347,13 @@
         <v>116312.4707719327</v>
       </c>
       <c r="N2" t="n">
-        <v>116312.4707719327</v>
+        <v>116312.4707719326</v>
       </c>
       <c r="O2" t="n">
-        <v>114324.9676874568</v>
+        <v>115558.7720105901</v>
       </c>
       <c r="P2" t="n">
-        <v>80710.96958749177</v>
+        <v>82895.95959605239</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9246.052035312925</v>
+        <v>13265.46759908291</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26378,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3287.334843612329</v>
+        <v>1246.619549474791</v>
       </c>
       <c r="H3" t="n">
-        <v>54347.73800859507</v>
+        <v>53120.56697032503</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7218.764569210156</v>
+        <v>10356.88390380382</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24763.57099960299</v>
+        <v>23762.29628838455</v>
       </c>
       <c r="C4" t="n">
-        <v>24763.57099960299</v>
+        <v>23762.29628838455</v>
       </c>
       <c r="D4" t="n">
-        <v>24763.57099960299</v>
+        <v>23762.29628838455</v>
       </c>
       <c r="E4" t="n">
-        <v>24763.57099960299</v>
+        <v>23762.29628838455</v>
       </c>
       <c r="F4" t="n">
-        <v>24763.57099960299</v>
+        <v>23762.29628838455</v>
       </c>
       <c r="G4" t="n">
-        <v>25455.53560360217</v>
+        <v>23996.38648677058</v>
       </c>
       <c r="H4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="I4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="J4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="K4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="L4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="M4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.8467842577</v>
       </c>
       <c r="N4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="O4" t="n">
-        <v>35408.78987609294</v>
+        <v>33426.83623350843</v>
       </c>
       <c r="P4" t="n">
-        <v>24763.57099960299</v>
+        <v>23762.29628838455</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35305.07353582722</v>
+        <v>36034.29971927991</v>
       </c>
       <c r="C5" t="n">
-        <v>35305.07353582722</v>
+        <v>36034.29971927991</v>
       </c>
       <c r="D5" t="n">
-        <v>35305.07353582722</v>
+        <v>36034.29971927991</v>
       </c>
       <c r="E5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="F5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="G5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26506,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>13924.44258030898</v>
+        <v>14377.13240238448</v>
       </c>
       <c r="P5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11396.27301674862</v>
+        <v>9833.89598930502</v>
       </c>
       <c r="C6" t="n">
-        <v>20642.32505206154</v>
+        <v>23099.36358838796</v>
       </c>
       <c r="D6" t="n">
-        <v>20642.32505206155</v>
+        <v>23099.36358838793</v>
       </c>
       <c r="E6" t="n">
-        <v>54269.92505206155</v>
+        <v>56726.96358838792</v>
       </c>
       <c r="F6" t="n">
-        <v>54269.92505206155</v>
+        <v>56726.96358838793</v>
       </c>
       <c r="G6" t="n">
-        <v>51746.38942955799</v>
+        <v>55760.86162893664</v>
       </c>
       <c r="H6" t="n">
-        <v>11272.85166415446</v>
+        <v>14888.38825358826</v>
       </c>
       <c r="I6" t="n">
-        <v>65620.58967274954</v>
+        <v>68008.9552239133</v>
       </c>
       <c r="J6" t="n">
-        <v>58401.82510353936</v>
+        <v>57652.07132010952</v>
       </c>
       <c r="K6" t="n">
-        <v>65620.58967274954</v>
+        <v>68008.95522391329</v>
       </c>
       <c r="L6" t="n">
-        <v>65620.58967274954</v>
+        <v>68008.95522391328</v>
       </c>
       <c r="M6" t="n">
-        <v>65620.58967274956</v>
+        <v>68008.9552239133</v>
       </c>
       <c r="N6" t="n">
-        <v>65620.58967274954</v>
+        <v>68008.95522391326</v>
       </c>
       <c r="O6" t="n">
-        <v>64991.73523105487</v>
+        <v>67754.80337469716</v>
       </c>
       <c r="P6" t="n">
-        <v>54269.92505206155</v>
+        <v>56726.96358838792</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26826,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>229.0204371761346</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="P4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,16 +27024,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>11.99385170152445</v>
+        <v>4.548295417388005</v>
       </c>
       <c r="H4" t="n">
-        <v>201.4304119158185</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27270,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>11.99385170152445</v>
+        <v>4.548295417388005</v>
       </c>
       <c r="P4" t="n">
-        <v>201.4304119158185</v>
+        <v>196.8821164984305</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L2" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M2" t="n">
-        <v>26.47527676494983</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M3" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q3" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34863,10 +34863,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L5" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q6" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35100,10 +35100,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M7" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M8" t="n">
-        <v>26.47527676494984</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N8" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N9" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35337,10 +35337,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N11" t="n">
-        <v>26.47527676494983</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L12" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P12" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35574,10 +35574,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M13" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O14" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="L15" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35811,10 +35811,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M16" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,19 +35884,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L17" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M17" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O17" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L18" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P18" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q18" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36051,7 +36051,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N19" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O19" t="n">
         <v>24.58512791403967</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36449,13 +36449,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>169.9091475161414</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>226.4350751681936</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37166,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>169.9067907798017</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,10 +37780,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>56.56475478883492</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>181.8947995804632</v>
+        <v>163.8853874227249</v>
       </c>
       <c r="M41" t="n">
         <v>219.1673002655598</v>
@@ -37862,22 +37862,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>229.0204371761346</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>137.6753640914271</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="O42" t="n">
-        <v>229.0204371761346</v>
+        <v>34.37252815495957</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,19 +38017,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L44" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M44" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>26.47527676494983</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O45" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P45" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38181,10 +38181,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M46" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>
